--- a/content/plataformes/dadesref/entitats/Codi_Postal_Municipis_Cat.xlsx
+++ b/content/plataformes/dadesref/entitats/Codi_Postal_Municipis_Cat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat.sharepoint.com/sites/GovernanaArquitecturaCloudiSI-60_ARQDades/Documents compartits/60_ARQ Dades/20 Cataleg/60 Modelatge/07.Codi_Postal_Municipis_Cat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{0E485CB4-E792-4E19-91D4-C9B7493CF14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{534C11CB-6863-46C7-A474-F701E0C59953}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0E485CB4-E792-4E19-91D4-C9B7493CF14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{647C01DF-9E8E-460F-AEC3-248063299F88}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="10095" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11255,7 +11255,7 @@
     <t>430271</t>
   </si>
   <si>
-    <t>Bisbal de Falset, la</t>
+    <t>Bisbal de Montsant, la</t>
   </si>
   <si>
     <t>1198</t>
@@ -13937,8 +13937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
-      <selection activeCell="M564" sqref="M564"/>
+    <sheetView tabSelected="1" topLeftCell="A1194" workbookViewId="0">
+      <selection activeCell="J1211" sqref="J1211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -33772,7 +33772,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B5:D80 A4:A1415 A1416:A1417 B1416:C1417 B1335:D1415 B1333:C1333 B1334:C1334 B83:D507 B81:C81 B82:C82 B511:D576 B508:C508 B509:C509 B510:C510 D4 B579:D1332 B578:C578 B577:C577" numberStoredAsText="1"/>
+    <ignoredError sqref="B5:D80 A4:A1415 A1416:A1417 B1416:C1417 B1335:D1415 B1333:C1333 B1334:C1334 B83:D507 B81:C81 B82:C82 B511:D576 B508:C508 B509:C509 B510:C510 D4 B579:D1199 B578:C578 B577:C577 B1201:D1332 B1200:C1200" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -33998,6 +33998,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
@@ -34007,23 +34016,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A2B0D0D-5B5B-4356-86E2-B3A94CD7519A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}"/>
 </file>